--- a/medicine/Handicap/Maison_Chance/Maison_Chance.xlsx
+++ b/medicine/Handicap/Maison_Chance/Maison_Chance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Maison Chance est une ONG de solidarité locale[1], créée en 1993 par la suisse "Tim" Aline Rebeaud[2] au Vietnam[3]. L'association intervient auprès de personnes en situation de handicap physique, d'orphelins et d'enfants défavorisés dans le sud du pays. Elle fournit logement, soins médicaux, éducation et formation professionnelle avec comme objectif la réhabilitation et la réinsertion.
-Elle est composée de trois sites à Hô Chi Minh-Ville (Foyer Maison Chance, Centre Envol, Village Chance[4]) et d'un centre social dans la province de Dak Nong sur les hauts-plateaux vietnamiens[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Maison Chance est une ONG de solidarité locale, créée en 1993 par la suisse "Tim" Aline Rebeaud au Vietnam. L'association intervient auprès de personnes en situation de handicap physique, d'orphelins et d'enfants défavorisés dans le sud du pays. Elle fournit logement, soins médicaux, éducation et formation professionnelle avec comme objectif la réhabilitation et la réinsertion.
+Elle est composée de trois sites à Hô Chi Minh-Ville (Foyer Maison Chance, Centre Envol, Village Chance) et d'un centre social dans la province de Dak Nong sur les hauts-plateaux vietnamiens.
 </t>
         </is>
       </c>
@@ -512,26 +524,12 @@
           <t>Maison Chance à Hô Chi Minh-Ville</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association se compose de trois unités à Hô Chi Minh-Ville dans le district de Bình Tân[4].
-En 2023, la veille de la fête du Têt, le Village Chance reçu la visite de diplomates des pays du G4 (Canada, Nouvelle-Zélande, Norvège, Suisse et Vietnam)[6],[7],[8].
-Le Foyer Maison Chance
-Le Foyer Maison Chance est la première unité du centre social de l'association, inaugurée en 1993 avec la création de l'ONG[9].
-Ce site permet l'hébergement d'enfants et d'adolescents orphelins ainsi que de personnes seules en situation de handicap[5].
-Le Centre Envol
-Le Centre Envol est la seconde unité du centre social de l'association, créée en 2006[10].
-Elle abrite un centre de formation professionnelle pour des personnes en situation de handicap[5], un centre médical ainsi que les bureaux de l'organisation.
-Formation professionnelle
-Les bénéficiaires adultes en situation de handicap et adolescents défavorisés ont la possibilité de recevoir une formation professionnelle sur la base d'un catalogue de cinq métiers proposés[11],[12]: peinture, couture, taille de pierre semi-précieuses, informatique et boulangerie.  
-Soins médicaux
-Un service médical assure le suivi de la condition physique et mentale des bénéficiaires de l'association : kinésithérapie, hydrothérapie, ergothérapie, dentiste. Pour des cas ayant besoin d'un traitement plus spécifique, le département de santé organise des visites à l'hôpital.
-Le Village Chance
-Le Village Chance constitue la troisième unité du centre social de l'association, ouvert en 2011. Elle dispose d'une école primaire, d'un jardin d'enfant ainsi que de logements à destination des bénéficiaires de l'association.
-Crèche &amp; école primaire
-Le programme éducatif de Maison Chance s'adresse à des enfants orphelins, sans acte de naissance, dans l'incapacité de payer les frais d'études ou avec un retard scolaire important[13].
-Logements
-Le Village Chance dispose de logements adaptés, à destination de familles ayant un ou plusieurs membres en fauteuil roulant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association se compose de trois unités à Hô Chi Minh-Ville dans le district de Bình Tân.
+En 2023, la veille de la fête du Têt, le Village Chance reçu la visite de diplomates des pays du G4 (Canada, Nouvelle-Zélande, Norvège, Suisse et Vietnam).
 </t>
         </is>
       </c>
@@ -557,20 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Maison Chance à Dak Nong</t>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le centre social de Dak Nong a été ouvert en 2019[14] près des cascades de Dray Sap et de Gia Long. L'objectif était d'étendre le périmètre d'action de Maison Chance aux provinces défavorisées du Vietnam ou vivent diverses minorités ethniques à la situation fragile[15].
-En plus des services fournis à HCMV, le centre social dispose d'une ferme avec potagers, jardins fruitiers et animaux[14].
-Formation professionnelle
-À l'instar du Centre Envol d'HCMV, des formations professionnelles similaires sont dispensées à Dak Nong à plus d'une vingtaine d'adultes handicapés dans quatre ateliers : informatique, couture, peinture et taille de pierre[16].
-Education spécialisée
-Les enfants défavorisés résidant au centre proviennent à 95% de minorités ethniques de la région, certains  étant atteints de problèmes physiques et mentaux.
-Le programme d'éducation pour les classes spécialisées repose sur l'éducation fonctionnelle et l'enseignement des connaissances et des compétences visant à développer les capacités physiques et intellectuelles des enfants en situation de handicap. 
-Soins médicaux
-Des soins de kinésithérapie, de balnéothérapie et d'équithérapie sont dispensés par des professionnels sur place et par des bénévoles étrangers. Sur le modèle d'HCMV, les soins de santé de base et bucco-dentaires sont aussi pris en charge directement sur le site et des visites à l'hôpital sont organisées régulièrement[17].
+          <t>Le Foyer Maison Chance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Foyer Maison Chance est la première unité du centre social de l'association, inaugurée en 1993 avec la création de l'ONG.
+Ce site permet l'hébergement d'enfants et d'adolescents orphelins ainsi que de personnes seules en situation de handicap.
 </t>
         </is>
       </c>
@@ -596,16 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>À l'international</t>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Europe
-Depuis 1996, Maison Chance est présente en Europe. L'objectif est d'apporter son soutien à l'association mère. L'activité étant uniquement assurée par des bénévoles, la quasi-totalité des fonds levés sont redistribués pour financer les frais de fonctionnement des programmes au Vietnam. Ces ressources proviennent de cotisations des membres, de donations et de la vente de produits des ateliers des différents centres lors d’événements caritatifs.
-En 2006, une antenne belge a été créée.
-En Amérique du Nord
-En 2008, Maison Chance USA[18] et Maison Chance Canada[19] voient le jour, toujours avec l'objectif de promouvoir l'activité de Maison Chance Vietnam à l'étranger. Sont organisées des campagnes de sollicitation au volontariat et à la contribution économique tout en mettant en avant l'aspect culturel et artistique de la communauté vietnamo-américaine.
+          <t>Le Centre Envol</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre Envol est la seconde unité du centre social de l'association, créée en 2006.
+Elle abrite un centre de formation professionnelle pour des personnes en situation de handicap, un centre médical ainsi que les bureaux de l'organisation.
 </t>
         </is>
       </c>
@@ -631,12 +631,436 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Centre Envol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bénéficiaires adultes en situation de handicap et adolescents défavorisés ont la possibilité de recevoir une formation professionnelle sur la base d'un catalogue de cinq métiers proposés,: peinture, couture, taille de pierre semi-précieuses, informatique et boulangerie.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Centre Envol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Soins médicaux</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un service médical assure le suivi de la condition physique et mentale des bénéficiaires de l'association : kinésithérapie, hydrothérapie, ergothérapie, dentiste. Pour des cas ayant besoin d'un traitement plus spécifique, le département de santé organise des visites à l'hôpital.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le Village Chance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Village Chance constitue la troisième unité du centre social de l'association, ouvert en 2011. Elle dispose d'une école primaire, d'un jardin d'enfant ainsi que de logements à destination des bénéficiaires de l'association.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le Village Chance</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Crèche &amp; école primaire</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le programme éducatif de Maison Chance s'adresse à des enfants orphelins, sans acte de naissance, dans l'incapacité de payer les frais d'études ou avec un retard scolaire important.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maison Chance à Hô Chi Minh-Ville</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le Village Chance</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Logements</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Village Chance dispose de logements adaptés, à destination de familles ayant un ou plusieurs membres en fauteuil roulant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Maison Chance à Dak Nong</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre social de Dak Nong a été ouvert en 2019 près des cascades de Dray Sap et de Gia Long. L'objectif était d'étendre le périmètre d'action de Maison Chance aux provinces défavorisées du Vietnam ou vivent diverses minorités ethniques à la situation fragile.
+En plus des services fournis à HCMV, le centre social dispose d'une ferme avec potagers, jardins fruitiers et animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Maison Chance à Dak Nong</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Formation professionnelle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar du Centre Envol d'HCMV, des formations professionnelles similaires sont dispensées à Dak Nong à plus d'une vingtaine d'adultes handicapés dans quatre ateliers : informatique, couture, peinture et taille de pierre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Maison Chance à Dak Nong</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Education spécialisée</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enfants défavorisés résidant au centre proviennent à 95% de minorités ethniques de la région, certains  étant atteints de problèmes physiques et mentaux.
+Le programme d'éducation pour les classes spécialisées repose sur l'éducation fonctionnelle et l'enseignement des connaissances et des compétences visant à développer les capacités physiques et intellectuelles des enfants en situation de handicap. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Maison Chance à Dak Nong</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Soins médicaux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des soins de kinésithérapie, de balnéothérapie et d'équithérapie sont dispensés par des professionnels sur place et par des bénévoles étrangers. Sur le modèle d'HCMV, les soins de santé de base et bucco-dentaires sont aussi pris en charge directement sur le site et des visites à l'hôpital sont organisées régulièrement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>À l'international</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1996, Maison Chance est présente en Europe. L'objectif est d'apporter son soutien à l'association mère. L'activité étant uniquement assurée par des bénévoles, la quasi-totalité des fonds levés sont redistribués pour financer les frais de fonctionnement des programmes au Vietnam. Ces ressources proviennent de cotisations des membres, de donations et de la vente de produits des ateliers des différents centres lors d’événements caritatifs.
+En 2006, une antenne belge a été créée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>À l'international</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Maison Chance USA et Maison Chance Canada voient le jour, toujours avec l'objectif de promouvoir l'activité de Maison Chance Vietnam à l'étranger. Sont organisées des campagnes de sollicitation au volontariat et à la contribution économique tout en mettant en avant l'aspect culturel et artistique de la communauté vietnamo-américaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Maison_Chance</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_Chance</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forbes | Vietnam[20]
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbes | Vietnam
 2021 : Top 20 des femmes les plus inspirantes élues par Forbes Vietnam 2021
 ↑ (vi + en) The Committee for Foreign non-Governmental Organization Affairs, « Liste des ONG étrangères officiellement enregistrées au Vietnam » 
 ↑ Thông Hai, « Portrait : La "Maison Chance" de Tim », Vietnam Illustré,‎ 8 décembre 2018 (lire en ligne )
